--- a/Documents/Testresults/calc jobinit.xlsx
+++ b/Documents/Testresults/calc jobinit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merdo\Desktop\BachelorThesis\Documents\Testresults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC96E8C5-DE24-4808-BDA8-9A34D70F842E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D1FAF7-4A81-42EE-AE1D-5B8DB42A6A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4440" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,18 +35,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="6">
   <si>
     <t>ns</t>
   </si>
   <si>
     <t>avg</t>
   </si>
+  <si>
+    <t>Object count</t>
+  </si>
+  <si>
+    <t>sort with overhead (ms)</t>
+  </si>
+  <si>
+    <t>sort (ms)</t>
+  </si>
+  <si>
+    <t>overhead(ms)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,12 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -106,6 +118,18 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,15 +1246,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1522,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CZ35"/>
+  <dimension ref="A1:CZ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,6 +1557,9 @@
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="5" width="3.42578125" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:104" x14ac:dyDescent="0.25">
@@ -1541,18 +1568,18 @@
       </c>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5">
+      <c r="B2" s="2"/>
+      <c r="C2" s="4">
         <f>AVERAGE(G2:CZ2)</f>
         <v>257381.63265306121</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="4"/>
       <c r="G2">
         <v>408600</v>
       </c>
@@ -1849,16 +1876,16 @@
       </c>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4">
         <f>AVERAGE(G3:CZ3)</f>
         <v>12906.122448979591</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4"/>
       <c r="G3">
         <v>14600</v>
       </c>
@@ -2155,35 +2182,35 @@
       </c>
     </row>
     <row r="4" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="6">
         <f>C2-C3</f>
         <v>244475.51020408163</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="8">
         <v>10</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5">
+      <c r="B6" s="2"/>
+      <c r="C6" s="4">
         <f>AVERAGE(G6:CZ6)</f>
         <v>298913.26530612243</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="4"/>
       <c r="G6">
         <v>498100</v>
       </c>
@@ -2480,16 +2507,16 @@
       </c>
     </row>
     <row r="7" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4">
         <f>AVERAGE(G7:CZ7)</f>
         <v>30742.857142857141</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
       <c r="G7">
         <v>62500</v>
       </c>
@@ -2786,33 +2813,33 @@
       </c>
     </row>
     <row r="8" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <f>C6-C7</f>
         <v>268170.40816326527</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="8">
         <v>50</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4">
         <f>AVERAGE(G10:CZ10)</f>
         <v>380911.22448979592</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
       <c r="G10">
         <v>567300</v>
       </c>
@@ -3109,16 +3136,16 @@
       </c>
     </row>
     <row r="11" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4">
         <f>AVERAGE(G11:CZ11)</f>
         <v>111316.32653061225</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
       <c r="G11">
         <v>270700</v>
       </c>
@@ -3415,35 +3442,35 @@
       </c>
     </row>
     <row r="12" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="7">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="6">
         <f>C10-C11</f>
         <v>269594.89795918367</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="8">
         <v>100</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5">
+      <c r="B14" s="2"/>
+      <c r="C14" s="4">
         <f>AVERAGE(G14:CZ14)</f>
         <v>435986.73469387757</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="4"/>
       <c r="G14">
         <v>824800</v>
       </c>
@@ -3740,16 +3767,16 @@
       </c>
     </row>
     <row r="15" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="5">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4">
         <f>AVERAGE(G15:CZ15)</f>
         <v>178012.24489795917</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
       <c r="G15">
         <v>470000</v>
       </c>
@@ -4046,35 +4073,35 @@
       </c>
     </row>
     <row r="16" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="6">
         <f>C14-C15</f>
         <v>257974.4897959184</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="8">
         <v>500</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="5">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4">
         <f>AVERAGE(G18:CZ18)</f>
         <v>1025714.2857142857</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="4"/>
       <c r="G18">
         <v>1579400</v>
       </c>
@@ -4371,16 +4398,16 @@
       </c>
     </row>
     <row r="19" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="5">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4">
         <f>AVERAGE(G19:CZ19)</f>
         <v>732865.30612244899</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="4"/>
       <c r="G19">
         <v>1006400</v>
       </c>
@@ -4677,35 +4704,35 @@
       </c>
     </row>
     <row r="20" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6">
         <f>C18-C19</f>
         <v>292848.97959183669</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="8">
         <v>1000</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="5">
+      <c r="B22" s="2"/>
+      <c r="C22" s="4">
         <f>AVERAGE(G22:CZ22)</f>
         <v>1746406.1224489796</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="4"/>
       <c r="G22">
         <v>2900800</v>
       </c>
@@ -5002,16 +5029,16 @@
       </c>
     </row>
     <row r="23" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="5">
+      <c r="A23" s="8"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4">
         <f>AVERAGE(G23:CZ23)</f>
         <v>1448001.0204081633</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="4"/>
       <c r="G23">
         <v>2107400</v>
       </c>
@@ -5308,35 +5335,35 @@
       </c>
     </row>
     <row r="24" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="6">
         <f>C22-C23</f>
         <v>298405.10204081633</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="8">
         <v>5000</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="5">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4">
         <f>AVERAGE(G26:CZ26)</f>
         <v>7820425.5102040814</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="4"/>
       <c r="G26">
         <v>9811100</v>
       </c>
@@ -5633,16 +5660,16 @@
       </c>
     </row>
     <row r="27" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="5">
+      <c r="A27" s="8"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4">
         <f>AVERAGE(G27:CZ27)</f>
         <v>7509189.7959183678</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="4"/>
       <c r="G27">
         <v>8577600</v>
       </c>
@@ -5939,35 +5966,35 @@
       </c>
     </row>
     <row r="28" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="7">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="6">
         <f>C26-C27</f>
         <v>311235.71428571362</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="8">
         <v>10000</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="5">
+      <c r="B30" s="2"/>
+      <c r="C30" s="4">
         <f>AVERAGE(G30:CZ30)</f>
         <v>17804268.367346939</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="4"/>
       <c r="G30">
         <v>17056400</v>
       </c>
@@ -6264,16 +6291,16 @@
       </c>
     </row>
     <row r="31" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="5">
+      <c r="A31" s="8"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="4">
         <f>AVERAGE(G31:CZ31)</f>
         <v>17399943.877551019</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="4"/>
       <c r="G31">
         <v>18464300</v>
       </c>
@@ -6570,14 +6597,14 @@
       </c>
     </row>
     <row r="32" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <f>C30-C31</f>
         <v>404324.48979591951</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F33" s="1"/>
@@ -6619,37 +6646,187 @@
     </row>
     <row r="35" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <f>C4/3*4 *4 /1000000</f>
         <v>1.303869387755102</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <f>C8/3*4 *4 /1000000</f>
         <v>1.4302421768707481</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <f>C12/3*4 *4 /1000000</f>
         <v>1.4378394557823129</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3">
         <f>C16/3*4 *4 /1000000</f>
         <v>1.3758639455782316</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <f>C20/3*4 *4 /1000000</f>
         <v>1.5618612244897958</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="3">
         <f>C24/3*4 *4 /1000000</f>
         <v>1.5914938775510203</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="3">
         <f>C28/3*4 *4 /1000000</f>
         <v>1.659923809523806</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="3">
         <f>C32/3*4 *4 /1000000</f>
         <v>2.1563972789115704</v>
+      </c>
+    </row>
+    <row r="38" spans="6:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <f>C2 / 3 /1000000</f>
+        <v>8.57938775510204E-2</v>
+      </c>
+      <c r="I39" s="10">
+        <f>C3 / 3 /1000000</f>
+        <v>4.3020408163265298E-3</v>
+      </c>
+      <c r="J39" s="10">
+        <f>H39-I39</f>
+        <v>8.1491836734693873E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="G40" s="9">
+        <v>10</v>
+      </c>
+      <c r="H40" s="10">
+        <f>C6 / 3 /1000000</f>
+        <v>9.9637755102040815E-2</v>
+      </c>
+      <c r="I40" s="10">
+        <f>C7 / 3 /1000000</f>
+        <v>1.0247619047619047E-2</v>
+      </c>
+      <c r="J40" s="10">
+        <f t="shared" ref="J40:J46" si="0">H40-I40</f>
+        <v>8.9390136054421768E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="G41" s="9">
+        <v>50</v>
+      </c>
+      <c r="H41" s="10">
+        <f>C10 / 3 /1000000</f>
+        <v>0.1269704081632653</v>
+      </c>
+      <c r="I41" s="10">
+        <f>C11 / 3 /1000000</f>
+        <v>3.710544217687075E-2</v>
+      </c>
+      <c r="J41" s="10">
+        <f t="shared" si="0"/>
+        <v>8.986496598639454E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="G42" s="9">
+        <v>100</v>
+      </c>
+      <c r="H42" s="10">
+        <f>C14 / 3 /1000000</f>
+        <v>0.14532891156462585</v>
+      </c>
+      <c r="I42" s="10">
+        <f>C15 / 3 /1000000</f>
+        <v>5.9337414965986393E-2</v>
+      </c>
+      <c r="J42" s="10">
+        <f t="shared" si="0"/>
+        <v>8.5991496598639458E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="G43" s="9">
+        <v>500</v>
+      </c>
+      <c r="H43" s="10">
+        <f>C18 / 3 /1000000</f>
+        <v>0.34190476190476188</v>
+      </c>
+      <c r="I43" s="10">
+        <f>C19 / 3 /1000000</f>
+        <v>0.24428843537414968</v>
+      </c>
+      <c r="J43" s="10">
+        <f t="shared" si="0"/>
+        <v>9.7616326530612196E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="G44" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="10">
+        <f>C22 / 3 /1000000</f>
+        <v>0.58213537414965988</v>
+      </c>
+      <c r="I44" s="10">
+        <f>C23 / 3 /1000000</f>
+        <v>0.48266700680272112</v>
+      </c>
+      <c r="J44" s="10">
+        <f t="shared" si="0"/>
+        <v>9.9468367346938757E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="G45" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H45" s="10">
+        <f>C26 / 3 /1000000</f>
+        <v>2.6068085034013606</v>
+      </c>
+      <c r="I45" s="10">
+        <f>C27 / 3 /1000000</f>
+        <v>2.5030632653061224</v>
+      </c>
+      <c r="J45" s="10">
+        <f t="shared" si="0"/>
+        <v>0.10374523809523817</v>
+      </c>
+    </row>
+    <row r="46" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="G46" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H46" s="10">
+        <f>C30 / 3 /1000000</f>
+        <v>5.93475612244898</v>
+      </c>
+      <c r="I46" s="10">
+        <f>C31 / 3 /1000000</f>
+        <v>5.799981292517006</v>
+      </c>
+      <c r="J46" s="10">
+        <f t="shared" si="0"/>
+        <v>0.13477482993197398</v>
       </c>
     </row>
   </sheetData>
@@ -6664,6 +6841,7 @@
     <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documents/Testresults/calc jobinit.xlsx
+++ b/Documents/Testresults/calc jobinit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merdo\Desktop\BachelorThesis\Documents\Testresults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D1FAF7-4A81-42EE-AE1D-5B8DB42A6A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73045617-FDF4-46B5-ABA0-91B737ACB96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
   <si>
     <t>ns</t>
   </si>
@@ -54,13 +54,20 @@
   <si>
     <t>overhead(ms)</t>
   </si>
+  <si>
+    <t>sort (%)</t>
+  </si>
+  <si>
+    <t>overhead(%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -100,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -120,16 +127,17 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,7 +694,671 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Overhead </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> when parallelizing the SAP sorting algorithm</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28297151784928204"/>
+          <c:y val="0.14537434254319995"/>
+          <c:w val="0.71702848215071802"/>
+          <c:h val="0.61374116278059654"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Overhead time (in %)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$G$39:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$L$39:$L$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>94.985608601536669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.715124515677545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.776307083175936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.170261218395055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.550736171906077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.086810347547555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.979779794329791</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2709413352668499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-619D-4384-80D1-BC5E8A4A9B53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sort execution time (in %)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$G$39:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$K$39:$K$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0143913984633315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.284875484322461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.223692916824053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.829738781604945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.449263828093933</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.913189652452445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.020220205670213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.729058664733159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-619D-4384-80D1-BC5E8A4A9B53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="49079823"/>
+        <c:axId val="49076079"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="49079823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>object</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> count</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49076079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49076079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" b="0" i="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>percentage of the total load</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:sysClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49079823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="0"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1242,18 +1914,539 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
+      <xdr:colOff>309562</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
@@ -1275,6 +2468,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>515082</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>34071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>446942</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378B8569-3B44-00BD-C45B-5BB81AA85E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1548,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CZ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="K42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA53" sqref="AA53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,6 +2789,7 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:104" x14ac:dyDescent="0.25">
@@ -1568,7 +2798,7 @@
       </c>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="12">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
@@ -1876,7 +3106,7 @@
       </c>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2"/>
       <c r="C3" s="4">
         <f>AVERAGE(G3:CZ3)</f>
@@ -2199,7 +3429,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="12">
         <v>10</v>
       </c>
       <c r="B6" s="2"/>
@@ -2507,7 +3737,7 @@
       </c>
     </row>
     <row r="7" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4">
         <f>AVERAGE(G7:CZ7)</f>
@@ -2828,7 +4058,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="12">
         <v>50</v>
       </c>
       <c r="B10" s="2"/>
@@ -3136,7 +4366,7 @@
       </c>
     </row>
     <row r="11" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4">
         <f>AVERAGE(G11:CZ11)</f>
@@ -3459,7 +4689,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="12">
         <v>100</v>
       </c>
       <c r="B14" s="2"/>
@@ -3767,7 +4997,7 @@
       </c>
     </row>
     <row r="15" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4">
         <f>AVERAGE(G15:CZ15)</f>
@@ -4090,7 +5320,7 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="12">
         <v>500</v>
       </c>
       <c r="B18" s="2"/>
@@ -4398,7 +5628,7 @@
       </c>
     </row>
     <row r="19" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4">
         <f>AVERAGE(G19:CZ19)</f>
@@ -4721,7 +5951,7 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="12">
         <v>1000</v>
       </c>
       <c r="B22" s="2"/>
@@ -5029,7 +6259,7 @@
       </c>
     </row>
     <row r="23" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4">
         <f>AVERAGE(G23:CZ23)</f>
@@ -5352,7 +6582,7 @@
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="12">
         <v>5000</v>
       </c>
       <c r="B26" s="2"/>
@@ -5660,7 +6890,7 @@
       </c>
     </row>
     <row r="27" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4">
         <f>AVERAGE(G27:CZ27)</f>
@@ -5983,7 +7213,7 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="12">
         <v>10000</v>
       </c>
       <c r="B30" s="2"/>
@@ -6291,7 +7521,7 @@
       </c>
     </row>
     <row r="31" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="2"/>
       <c r="C31" s="4">
         <f>AVERAGE(G31:CZ31)</f>
@@ -6680,153 +7910,223 @@
       </c>
     </row>
     <row r="38" spans="6:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="10" t="s">
         <v>5</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <v>0</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <f>C2 / 3 /1000000</f>
         <v>8.57938775510204E-2</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="9">
         <f>C3 / 3 /1000000</f>
         <v>4.3020408163265298E-3</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="9">
         <f>H39-I39</f>
         <v>8.1491836734693873E-2</v>
       </c>
+      <c r="K39" s="11">
+        <f>100/$H39*I39</f>
+        <v>5.0143913984633315</v>
+      </c>
+      <c r="L39" s="11">
+        <f>100/$H39*J39</f>
+        <v>94.985608601536669</v>
+      </c>
     </row>
     <row r="40" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>10</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <f>C6 / 3 /1000000</f>
         <v>9.9637755102040815E-2</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="9">
         <f>C7 / 3 /1000000</f>
         <v>1.0247619047619047E-2</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="9">
         <f t="shared" ref="J40:J46" si="0">H40-I40</f>
         <v>8.9390136054421768E-2</v>
       </c>
+      <c r="K40" s="11">
+        <f t="shared" ref="K40:K46" si="1">100/$H40*I40</f>
+        <v>10.284875484322461</v>
+      </c>
+      <c r="L40" s="11">
+        <f t="shared" ref="L40:L46" si="2">100/$H40*J40</f>
+        <v>89.715124515677545</v>
+      </c>
     </row>
     <row r="41" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G41" s="9">
+      <c r="G41" s="8">
         <v>50</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <f>C10 / 3 /1000000</f>
         <v>0.1269704081632653</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="9">
         <f>C11 / 3 /1000000</f>
         <v>3.710544217687075E-2</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="9">
         <f t="shared" si="0"/>
         <v>8.986496598639454E-2</v>
       </c>
+      <c r="K41" s="11">
+        <f t="shared" si="1"/>
+        <v>29.223692916824053</v>
+      </c>
+      <c r="L41" s="11">
+        <f t="shared" si="2"/>
+        <v>70.776307083175936</v>
+      </c>
     </row>
     <row r="42" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G42" s="9">
+      <c r="G42" s="8">
         <v>100</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <f>C14 / 3 /1000000</f>
         <v>0.14532891156462585</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <f>C15 / 3 /1000000</f>
         <v>5.9337414965986393E-2</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="9">
         <f t="shared" si="0"/>
         <v>8.5991496598639458E-2</v>
       </c>
+      <c r="K42" s="11">
+        <f t="shared" si="1"/>
+        <v>40.829738781604945</v>
+      </c>
+      <c r="L42" s="11">
+        <f t="shared" si="2"/>
+        <v>59.170261218395055</v>
+      </c>
     </row>
     <row r="43" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G43" s="9">
+      <c r="G43" s="8">
         <v>500</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <f>C18 / 3 /1000000</f>
         <v>0.34190476190476188</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <f>C19 / 3 /1000000</f>
         <v>0.24428843537414968</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <f t="shared" si="0"/>
         <v>9.7616326530612196E-2</v>
       </c>
+      <c r="K43" s="11">
+        <f t="shared" si="1"/>
+        <v>71.449263828093933</v>
+      </c>
+      <c r="L43" s="11">
+        <f t="shared" si="2"/>
+        <v>28.550736171906077</v>
+      </c>
     </row>
     <row r="44" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G44" s="9">
+      <c r="G44" s="8">
         <v>1000</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <f>C22 / 3 /1000000</f>
         <v>0.58213537414965988</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="9">
         <f>C23 / 3 /1000000</f>
         <v>0.48266700680272112</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="9">
         <f t="shared" si="0"/>
         <v>9.9468367346938757E-2</v>
       </c>
+      <c r="K44" s="11">
+        <f t="shared" si="1"/>
+        <v>82.913189652452445</v>
+      </c>
+      <c r="L44" s="11">
+        <f t="shared" si="2"/>
+        <v>17.086810347547555</v>
+      </c>
     </row>
     <row r="45" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G45" s="9">
+      <c r="G45" s="8">
         <v>5000</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="9">
         <f>C26 / 3 /1000000</f>
         <v>2.6068085034013606</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="9">
         <f>C27 / 3 /1000000</f>
         <v>2.5030632653061224</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="9">
         <f t="shared" si="0"/>
         <v>0.10374523809523817</v>
       </c>
+      <c r="K45" s="11">
+        <f t="shared" si="1"/>
+        <v>96.020220205670213</v>
+      </c>
+      <c r="L45" s="11">
+        <f t="shared" si="2"/>
+        <v>3.979779794329791</v>
+      </c>
     </row>
     <row r="46" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <v>10000</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <f>C30 / 3 /1000000</f>
         <v>5.93475612244898</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="9">
         <f>C31 / 3 /1000000</f>
         <v>5.799981292517006</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="9">
         <f t="shared" si="0"/>
         <v>0.13477482993197398</v>
+      </c>
+      <c r="K46" s="11">
+        <f t="shared" si="1"/>
+        <v>97.729058664733159</v>
+      </c>
+      <c r="L46" s="11">
+        <f t="shared" si="2"/>
+        <v>2.2709413352668499</v>
       </c>
     </row>
   </sheetData>
